--- a/Contract formula.xlsx
+++ b/Contract formula.xlsx
@@ -597,10 +597,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -908,7 +908,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -920,7 +920,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,7 +984,7 @@
         <f ca="1">IF(AND(B2="C001", C2&gt;0,E2=0),C2,IF(AND(B2="C001", H2 &gt; 0),J1-(I2+H2),J1-I2))</f>
         <v>10000</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -1065,12 +1065,13 @@
         <v>4000</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J3:J5" ca="1" si="0">IF(AND(B5="C001", C5&gt;0,E5=0),C5,IF(AND(B5="C001", H5 &gt; 0),J4-(I5+H5),J4-I5))</f>
+        <f ca="1">IF(AND(B5="C001", C5&gt;0,E5=0),C5,IF(AND(B5="C001", H5 &gt; 0),J4-(I5+H5),J4-I5))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1103,17 +1104,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>

--- a/Contract formula.xlsx
+++ b/Contract formula.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Contract 0308TSFOB" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Contract 0308TSFOB'!$B$1:$J$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Contract 0308TSFOB'!$B$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -32,8 +32,115 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vandert THUY</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vandert THUY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DESC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vandert THUY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ref Payment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vandert THUY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Name User</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vandert THUY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DateTimeNow
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Contract No.</t>
   </si>
@@ -83,9 +190,6 @@
     <t>202207YPrix001</t>
   </si>
   <si>
-    <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Subject: </t>
   </si>
   <si>
@@ -186,6 +290,24 @@
   </si>
   <si>
     <t>Contract Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Date: </t>
+  </si>
+  <si>
+    <t>Deduction References</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>PayID</t>
+  </si>
+  <si>
+    <t>PayContract or PO number</t>
+  </si>
+  <si>
+    <t>If &gt; Payid show all</t>
   </si>
 </sst>
 </file>
@@ -193,9 +315,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +370,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -486,9 +629,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -517,31 +660,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -569,7 +712,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -578,10 +721,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,6 +744,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -908,7 +1052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -919,8 +1063,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,7 +1078,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -952,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -961,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1076,14 +1220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="36" workbookViewId="0">
+      <selection activeCell="D8" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1091,19 +1235,19 @@
     <col min="1" max="1" width="33.08984375" customWidth="1"/>
     <col min="2" max="2" width="34.26953125" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" customWidth="1"/>
-    <col min="9" max="9" width="48.90625" customWidth="1"/>
-    <col min="10" max="10" width="48.26953125" customWidth="1"/>
-    <col min="11" max="11" width="20.7265625" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="36.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+    <col min="10" max="10" width="48.90625" customWidth="1"/>
+    <col min="11" max="11" width="48.26953125" customWidth="1"/>
+    <col min="12" max="12" width="20.7265625" customWidth="1"/>
+    <col min="13" max="13" width="26.54296875" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="41" t="s">
         <v>10</v>
       </c>
@@ -1115,10 +1259,11 @@
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
-      <c r="K1" s="22"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1126,14 +1271,14 @@
         <v>12</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="3"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L2" s="4"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1141,62 +1286,65 @@
         <v>14</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L3" s="4"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L4" s="4"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5">
         <v>44746</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="3"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L5" s="4"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" ht="46" x14ac:dyDescent="1">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="42" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="3"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L6" s="4"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -1204,334 +1352,364 @@
       <c r="D7" s="24">
         <v>10000</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L7" s="4"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="6"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J8" s="6"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H10" s="3"/>
+      <c r="I10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="7"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="23" t="s">
+      <c r="J11" s="7"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="E12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12">
         <v>10000</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="11"/>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="12">
         <f>-D13*10%</f>
         <v>-1000</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="16">
+      <c r="F14" s="12"/>
+      <c r="G14" s="16">
         <v>10000</v>
       </c>
-      <c r="G14" s="17">
+      <c r="H14" s="17">
         <v>44630</v>
       </c>
-      <c r="H14" s="17">
+      <c r="I14" s="17">
         <v>44711</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="11"/>
       <c r="C15" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="12">
         <v>5000</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="17"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
       <c r="B16" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="30">
         <f>-2500</f>
         <v>-2500</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="16">
+      <c r="E16" s="30"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="16">
         <v>2500</v>
       </c>
-      <c r="G16" s="17">
+      <c r="H16" s="17">
         <v>44650</v>
       </c>
-      <c r="H16" s="17">
+      <c r="I16" s="17">
         <v>44711</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28"/>
       <c r="B17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="D17" s="30">
         <f>-2500</f>
         <v>-2500</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="16">
+      <c r="E17" s="30"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="16">
         <v>2500</v>
       </c>
-      <c r="G17" s="17">
+      <c r="H17" s="17">
         <v>44684</v>
       </c>
-      <c r="H17" s="17">
+      <c r="I17" s="17">
         <v>44711</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
       <c r="C18" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="12">
         <v>5000</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="17"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28"/>
       <c r="B19" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="D19" s="30">
         <f>-2500</f>
         <v>-2500</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="30">
+      <c r="E19" s="30"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="30">
         <f>2500</f>
         <v>2500</v>
       </c>
-      <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="17"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="30">
         <f>-2500</f>
         <v>-2500</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="30"/>
+      <c r="F20" s="12">
         <v>1000</v>
       </c>
-      <c r="F20" s="30">
+      <c r="G20" s="30">
         <f>1500</f>
         <v>1500</v>
       </c>
-      <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:14" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="17"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:15" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D25" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="I25" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="J25" s="38"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="23"/>
+      <c r="E31" s="39"/>
+      <c r="I31" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="39"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
-    </row>
-    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -1540,25 +1718,27 @@
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
-    </row>
-    <row r="35" spans="5:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G36" t="s">
-        <v>22</v>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="35" spans="6:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.2" top="0.44" bottom="0" header="0.3" footer="0"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LUpdated August 5,2021</oddHeader>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Contract formula.xlsx
+++ b/Contract formula.xlsx
@@ -741,10 +741,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1052,7 +1052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1226,8 +1226,8 @@
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="D8" sqref="D2:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="36" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1248,18 +1248,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
@@ -1329,7 +1329,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="3"/>

--- a/Contract formula.xlsx
+++ b/Contract formula.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Contract No.</t>
   </si>
@@ -1052,7 +1052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,8 +1063,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,7 +1125,6 @@
         <v>1000</v>
       </c>
       <c r="J2">
-        <f ca="1">IF(AND(B2="C001", C2&gt;0,E2=0),C2,IF(AND(B2="C001", H2 &gt; 0),J1-(I2+H2),J1-I2))</f>
         <v>10000</v>
       </c>
       <c r="L2" s="40">
@@ -1135,9 +1134,6 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
@@ -1226,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="36" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Contract formula.xlsx
+++ b/Contract formula.xlsx
@@ -33,6 +33,64 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vandert THUY</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vandert THUY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contract Balance minus Advance amt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vandert THUY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Advance Amt - Contract Balance - 1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vandert THUY</author>
@@ -140,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Contract No.</t>
   </si>
@@ -308,6 +366,9 @@
   </si>
   <si>
     <t>If &gt; Payid show all</t>
+  </si>
+  <si>
+    <t>C002</t>
   </si>
 </sst>
 </file>
@@ -315,7 +376,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -629,7 +690,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -660,31 +721,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,7 +773,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -721,10 +782,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,19 +1113,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,7 +1186,7 @@
         <v>1000</v>
       </c>
       <c r="J2">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L2" s="40">
         <v>0.1</v>
@@ -1153,7 +1214,7 @@
       </c>
       <c r="J3">
         <f ca="1">IF(AND(B3="C001", C3&gt;0,E3=0),C3,IF(AND(B3="C001", H3 &gt; 0),J2-(I3+H3),J2-I3))</f>
-        <v>7500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1178,7 +1239,7 @@
       </c>
       <c r="J4">
         <f ca="1">IF(AND(B4="C001", C4&gt;0,E4=0),C4,IF(AND(B4="C001", H4 &gt; 0),J3-(I4+H4),J3-I4))</f>
-        <v>5000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1205,13 +1266,132 @@
         <v>4000</v>
       </c>
       <c r="J5">
-        <f ca="1">IF(AND(B5="C001", C5&gt;0,E5=0),C5,IF(AND(B5="C001", H5 &gt; 0),J4-(I5+H5),J4-I5))</f>
+        <f ca="1">J4-K5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f ca="1">F5-H5</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="I8">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="1">
+        <f ca="1">C8-F8</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="21">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F9">
+        <v>3000</v>
+      </c>
+      <c r="J9" s="1">
+        <f ca="1">J8-F9</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="21">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F10">
+        <v>5000</v>
+      </c>
+      <c r="J10" s="1">
+        <f ca="1">J9-F10</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="21">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <f ca="1">F11-H11</f>
+        <v>9000</v>
+      </c>
+      <c r="J11" s="1">
+        <f ca="1">J10-F11</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
